--- a/Console app-JavaFX/DataSamplesOfNightClub.xlsx
+++ b/Console app-JavaFX/DataSamplesOfNightClub.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uluc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uluc/Desktop/-Tum Kodlamalar-/SoftWare Engineering/Night-Club-Data-Visualization/Console app-JavaFX/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C045683-229B-1B40-B0BC-32028CBBCC66}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="5" xr2:uid="{843F5481-E817-C745-AA5C-C84498A58F94}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" firstSheet="9" activeTab="21" xr2:uid="{843F5481-E817-C745-AA5C-C84498A58F94}"/>
   </bookViews>
   <sheets>
     <sheet name="Şablon" sheetId="1" r:id="rId1"/>
@@ -2130,6 +2131,72 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2172,85 +2239,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2570,7 +2571,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2580,16 +2581,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2599,21 +2600,21 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="79"/>
+      <c r="C3" s="58"/>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="80"/>
+      <c r="C4" s="59"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -2640,14 +2641,14 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
@@ -2655,21 +2656,21 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
@@ -2679,12 +2680,12 @@
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -2696,12 +2697,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2713,10 +2714,10 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -2765,7 +2766,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -2794,11 +2795,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2810,7 +2811,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -2823,7 +2824,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
         <v>0</v>
       </c>
@@ -2840,23 +2841,23 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="67">
         <v>43257</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2866,6 +2867,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -2873,18 +2886,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -2907,16 +2908,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2926,21 +2927,21 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="79">
+      <c r="C3" s="58">
         <v>673</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2961,7 +2962,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="80"/>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
         <v>14</v>
       </c>
@@ -2977,14 +2978,14 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
@@ -2994,25 +2995,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
+      <c r="E7" s="60">
         <v>20</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
         <v>33</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -3022,12 +3023,12 @@
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -3039,12 +3040,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3056,12 +3057,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="72">
         <v>45</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -3112,7 +3113,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -3141,11 +3142,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
         <v>2100</v>
       </c>
@@ -3159,7 +3160,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -3172,7 +3173,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
         <v>28000</v>
       </c>
@@ -3193,26 +3194,38 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="67">
         <v>43169</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -3220,18 +3233,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3254,16 +3255,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3273,14 +3274,14 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -3289,7 +3290,7 @@
       <c r="B3" s="5">
         <v>497</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="58">
         <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -3312,7 +3313,7 @@
       <c r="B4" s="5">
         <v>73</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
         <v>9</v>
       </c>
@@ -3328,14 +3329,14 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
@@ -3345,25 +3346,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
+      <c r="E7" s="60">
         <v>20</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
         <v>33</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -3373,12 +3374,12 @@
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -3390,12 +3391,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3407,12 +3408,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="72">
         <v>57</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -3463,7 +3464,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -3492,11 +3493,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
         <v>1900</v>
       </c>
@@ -3510,7 +3511,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -3523,7 +3524,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
         <v>26000</v>
       </c>
@@ -3544,26 +3545,38 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="67">
         <v>43134</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -3571,18 +3584,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3605,16 +3606,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3624,21 +3625,21 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="79">
+      <c r="C3" s="58">
         <v>688</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -3659,7 +3660,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="80"/>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
         <v>10</v>
       </c>
@@ -3675,14 +3676,14 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
@@ -3692,40 +3693,40 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
+      <c r="E7" s="60">
         <v>30</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
         <v>89</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -3737,12 +3738,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3754,12 +3755,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="72">
         <v>87</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -3810,7 +3811,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -3839,11 +3840,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3855,7 +3856,7 @@
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -3868,7 +3869,7 @@
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
         <v>17500</v>
       </c>
@@ -3889,74 +3890,426 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="67">
         <v>43127</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="68"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="A28:I31"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3344B2-EC6B-D243-8450-7A99B64367CA}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>538</v>
+      </c>
+      <c r="C3" s="58">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>78</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="E4" s="11">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="22">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="E6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="E7" s="60">
+        <v>45</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>10</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>11</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18">
+        <v>70</v>
+      </c>
+      <c r="C10" s="30">
+        <v>400</v>
+      </c>
+      <c r="E10" s="72">
+        <v>67</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18">
+        <v>35</v>
+      </c>
+      <c r="C11" s="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="28">
+        <v>3</v>
+      </c>
+      <c r="C13" s="30">
+        <v>8</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <v>35</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0</v>
+      </c>
+      <c r="C15" s="32">
+        <v>50</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="15"/>
+      <c r="I16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="18">
+        <v>47300</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="33">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="67">
+        <v>43176</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="D14:D15"/>
@@ -3982,12 +4335,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3344B2-EC6B-D243-8450-7A99B64367CA}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E62214A-E36B-B048-B8CE-44FEC17B1013}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3998,16 +4351,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4017,24 +4370,24 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>538</v>
-      </c>
-      <c r="C3" s="79">
-        <v>46</v>
+        <v>498</v>
+      </c>
+      <c r="C3" s="58">
+        <v>70</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -4054,14 +4407,14 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>78</v>
-      </c>
-      <c r="C4" s="80"/>
+        <v>54</v>
+      </c>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="12">
         <v>2</v>
@@ -4072,57 +4425,57 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="22">
-        <v>629</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>45</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>10</v>
-      </c>
-      <c r="H7" s="66"/>
+      <c r="E7" s="60">
+        <v>50</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>102</v>
+      </c>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4134,12 +4487,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4151,12 +4504,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
-        <v>67</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="E10" s="72">
+        <v>55</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -4194,7 +4547,7 @@
         <v>28</v>
       </c>
       <c r="J13" s="25">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4207,7 +4560,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -4236,11 +4589,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
         <v>2000</v>
       </c>
@@ -4254,7 +4607,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -4267,9 +4620,9 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
-        <v>47300</v>
+        <v>31400</v>
       </c>
       <c r="F18" s="18">
         <v>1000</v>
@@ -4288,23 +4641,1473 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="B21" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
-        <v>43176</v>
-      </c>
-      <c r="F22" s="46"/>
+      <c r="E22" s="67">
+        <v>43173</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61896538-F44A-F144-BA23-238638A5DEBE}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>504</v>
+      </c>
+      <c r="C3" s="58">
+        <v>78</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="E4" s="11">
+        <v>9</v>
+      </c>
+      <c r="F4" s="12">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="22">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="E6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="E7" s="60">
+        <v>45</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>210</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>11</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18">
+        <v>70</v>
+      </c>
+      <c r="C10" s="30">
+        <v>400</v>
+      </c>
+      <c r="E10" s="72">
+        <v>56</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18">
+        <v>35</v>
+      </c>
+      <c r="C11" s="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="28">
+        <v>3</v>
+      </c>
+      <c r="C13" s="30">
+        <v>8</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <v>35</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0</v>
+      </c>
+      <c r="C15" s="32">
+        <v>50</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="16">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="15"/>
+      <c r="I16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="18">
+        <v>49000</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="33">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="67">
+        <v>43196</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04332245-D9AD-E646-91DA-94123E3FBEDD}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>573</v>
+      </c>
+      <c r="C3" s="58">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>63</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="E4" s="11">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="22">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="E6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="E7" s="60">
+        <v>45</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>210</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>11</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18">
+        <v>70</v>
+      </c>
+      <c r="C10" s="30">
+        <v>400</v>
+      </c>
+      <c r="E10" s="72">
+        <v>63</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18">
+        <v>35</v>
+      </c>
+      <c r="C11" s="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="28">
+        <v>3</v>
+      </c>
+      <c r="C13" s="30">
+        <v>8</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <v>35</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0</v>
+      </c>
+      <c r="C15" s="32">
+        <v>50</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="16">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="15"/>
+      <c r="I16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="18">
+        <v>51000</v>
+      </c>
+      <c r="F18" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="33">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="67">
+        <v>43227</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62659E0E-2C32-D34D-88AE-C01FA6C7F1BB}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>310</v>
+      </c>
+      <c r="C3" s="58">
+        <v>60</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>214</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="E4" s="11">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="22">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="E6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="E7" s="60">
+        <v>1</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>15</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>11</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18">
+        <v>70</v>
+      </c>
+      <c r="C10" s="30">
+        <v>400</v>
+      </c>
+      <c r="E10" s="72">
+        <v>59</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18">
+        <v>35</v>
+      </c>
+      <c r="C11" s="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="28">
+        <v>4</v>
+      </c>
+      <c r="C13" s="30">
+        <v>10</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <v>35</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0</v>
+      </c>
+      <c r="C15" s="32">
+        <v>50</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="15"/>
+      <c r="I16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="18">
+        <v>43000</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="33">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="67">
+        <v>43131</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B25:I28"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E6CA19-9726-5A40-9A87-227FE5831F64}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>104</v>
+      </c>
+      <c r="C3" s="58">
+        <v>62</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>613</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="E4" s="11">
+        <v>150</v>
+      </c>
+      <c r="F4" s="12">
+        <v>92</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="22">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="E6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="E7" s="60">
+        <v>54</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>37</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>11</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18">
+        <v>70</v>
+      </c>
+      <c r="C10" s="30">
+        <v>400</v>
+      </c>
+      <c r="E10" s="72">
+        <v>78</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18">
+        <v>35</v>
+      </c>
+      <c r="C11" s="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="28">
+        <v>4</v>
+      </c>
+      <c r="C13" s="30">
+        <v>10</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <v>35</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0</v>
+      </c>
+      <c r="C15" s="32">
+        <v>50</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="16">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="15"/>
+      <c r="I16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="18">
+        <v>68700</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="33">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="67">
+        <v>43211</v>
+      </c>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4334,12 +6137,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E62214A-E36B-B048-B8CE-44FEC17B1013}">
-  <dimension ref="A1:J22"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFCF96E-35A1-2646-B69D-CD07A71FC411}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4350,16 +6153,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4369,24 +6172,24 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>498</v>
-      </c>
-      <c r="C3" s="79">
-        <v>70</v>
+        <v>731</v>
+      </c>
+      <c r="C3" s="58">
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -4406,75 +6209,75 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>54</v>
-      </c>
-      <c r="C4" s="80"/>
+        <v>62</v>
+      </c>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F4" s="12">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G4" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="22">
-        <v>434</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>50</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>102</v>
-      </c>
-      <c r="H7" s="66"/>
+      <c r="E7" s="60">
+        <v>69</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>47</v>
+      </c>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4486,12 +6289,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4503,12 +6306,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
-        <v>55</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="E10" s="72">
+        <v>79</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -4537,16 +6340,16 @@
         <v>32</v>
       </c>
       <c r="B13" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="25">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4559,7 +6362,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -4575,7 +6378,7 @@
         <v>29</v>
       </c>
       <c r="J14" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4588,14 +6391,12 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="16">
-        <v>2000</v>
-      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="15"/>
@@ -4606,7 +6407,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -4619,18 +6420,18 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
-        <v>31400</v>
+        <v>77000</v>
       </c>
       <c r="F18" s="18">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="33">
-        <v>1100</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -4640,26 +6441,33 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="B21" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
-        <v>43173</v>
-      </c>
-      <c r="F22" s="46"/>
+      <c r="E22" s="67">
+        <v>43267</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -4674,6 +6482,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="D14:D15"/>
@@ -4686,12 +6495,363 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61896538-F44A-F144-BA23-238638A5DEBE}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643AED7F-CC45-AE4C-AB3E-1C6D990CAEFF}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="58">
+        <v>412</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="59"/>
+      <c r="E4" s="11">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12">
+        <v>12</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="22">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="E6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="E7" s="60">
+        <v>9</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>22</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>11</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18">
+        <v>70</v>
+      </c>
+      <c r="C10" s="30">
+        <v>400</v>
+      </c>
+      <c r="E10" s="72">
+        <v>67</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18">
+        <v>35</v>
+      </c>
+      <c r="C11" s="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="28">
+        <v>3</v>
+      </c>
+      <c r="C13" s="30">
+        <v>8</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <v>35</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0</v>
+      </c>
+      <c r="C15" s="32">
+        <v>50</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="16">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="15"/>
+      <c r="I16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="18">
+        <v>9600</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="33">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="67">
+        <v>43141</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{DC1BD6B8-A583-CB4F-BBF0-F7A652F36766}">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="19">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA52E66-8D90-8549-9D8A-0FBFBE416048}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4702,16 +6862,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4721,24 +6881,24 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>504</v>
-      </c>
-      <c r="C3" s="79">
-        <v>78</v>
+        <v>612</v>
+      </c>
+      <c r="C3" s="58">
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -4758,75 +6918,71 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>44</v>
-      </c>
-      <c r="C4" s="80"/>
+        <v>211</v>
+      </c>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F4" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="22">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>45</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>210</v>
-      </c>
-      <c r="H7" s="66"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4838,12 +6994,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4855,12 +7011,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
-        <v>56</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="E10" s="72">
+        <v>78</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -4889,16 +7045,16 @@
         <v>32</v>
       </c>
       <c r="B13" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="25">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4911,7 +7067,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -4927,7 +7083,7 @@
         <v>29</v>
       </c>
       <c r="J14" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4940,13 +7096,13 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -4956,9 +7112,9 @@
       </c>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -4969,49 +7125,61 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
-        <v>49000</v>
+        <v>73500</v>
       </c>
       <c r="F18" s="18">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="33">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
-        <v>43196</v>
-      </c>
-      <c r="F22" s="46"/>
+      <c r="E22" s="67">
+        <v>43337</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E25" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -5026,6 +7194,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E25:L25"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="D14:D15"/>
@@ -5038,12 +7207,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04332245-D9AD-E646-91DA-94123E3FBEDD}">
-  <dimension ref="A1:J22"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5198DAF-4552-4247-826A-7BD86AA6CAC8}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:H10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5054,16 +7223,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -5073,24 +7242,24 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>573</v>
-      </c>
-      <c r="C3" s="79">
-        <v>63</v>
+        <v>653</v>
+      </c>
+      <c r="C3" s="58">
+        <v>65</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -5110,75 +7279,75 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>63</v>
-      </c>
-      <c r="C4" s="80"/>
+        <v>196</v>
+      </c>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F4" s="12">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="22">
-        <v>412</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>45</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>210</v>
-      </c>
-      <c r="H7" s="66"/>
+      <c r="E7" s="60">
+        <v>100</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>48</v>
+      </c>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -5190,12 +7359,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -5207,12 +7376,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
-        <v>63</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="E10" s="72">
+        <v>56</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -5241,16 +7410,16 @@
         <v>32</v>
       </c>
       <c r="B13" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="25">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5263,7 +7432,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -5279,7 +7448,7 @@
         <v>29</v>
       </c>
       <c r="J14" s="26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5292,13 +7461,13 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
-        <v>1350</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -5308,9 +7477,9 @@
       </c>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -5321,49 +7490,61 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
-        <v>51000</v>
+        <v>66500</v>
       </c>
       <c r="F18" s="18">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="33">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
-        <v>43227</v>
-      </c>
-      <c r="F22" s="46"/>
+      <c r="E22" s="67">
+        <v>43239</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E25" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -5378,6 +7559,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E25:L25"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="D14:D15"/>
@@ -5390,32 +7572,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62659E0E-2C32-D34D-88AE-C01FA6C7F1BB}">
-  <dimension ref="A1:J28"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934E0324-2EA6-6E4E-A5E8-488ECEA7C0B9}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -5425,24 +7606,22 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
-        <v>310</v>
-      </c>
-      <c r="C3" s="79">
-        <v>60</v>
+      <c r="B3" s="5"/>
+      <c r="C3" s="58">
+        <v>528</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -5461,76 +7640,74 @@
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>214</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="E4" s="11">
-        <v>16</v>
-      </c>
-      <c r="F4" s="12">
-        <v>11</v>
-      </c>
-      <c r="G4" s="12">
-        <v>3</v>
-      </c>
-      <c r="H4" s="13">
-        <v>3</v>
+      <c r="B4" s="5"/>
+      <c r="C4" s="59"/>
+      <c r="E4" s="39">
+        <v>6</v>
+      </c>
+      <c r="F4" s="40">
+        <v>9</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1</v>
+      </c>
+      <c r="H4" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="22">
-        <v>423</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>1</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>15</v>
-      </c>
-      <c r="H7" s="66"/>
+      <c r="E7" s="60">
+        <v>17</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>40</v>
+      </c>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -5542,12 +7719,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -5559,12 +7736,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
-        <v>59</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="E10" s="72">
+        <v>63</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -5602,7 +7779,7 @@
         <v>28</v>
       </c>
       <c r="J13" s="25">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5615,7 +7792,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -5630,8 +7807,8 @@
       <c r="I14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="26">
-        <v>3</v>
+      <c r="J14" s="37">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5644,12 +7821,14 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="38">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="15"/>
@@ -5660,31 +7839,31 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="41" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="20"/>
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="18">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="33">
-        <v>1700</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -5694,419 +7873,23 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="B21" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
-        <v>43131</v>
-      </c>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B25:I28"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E6CA19-9726-5A40-9A87-227FE5831F64}">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>104</v>
-      </c>
-      <c r="C3" s="79">
-        <v>62</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>613</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="E4" s="11">
-        <v>150</v>
-      </c>
-      <c r="F4" s="12">
-        <v>92</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="22">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="62"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>54</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>37</v>
-      </c>
-      <c r="H7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="C9" s="30">
-        <v>11</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18">
-        <v>70</v>
-      </c>
-      <c r="C10" s="30">
-        <v>400</v>
-      </c>
-      <c r="E10" s="50">
-        <v>78</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18">
-        <v>35</v>
-      </c>
-      <c r="C11" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C12" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="28">
-        <v>4</v>
-      </c>
-      <c r="C13" s="30">
-        <v>10</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="30">
-        <v>35</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="35">
-        <v>0</v>
-      </c>
-      <c r="C15" s="32">
-        <v>50</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="16">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
-      <c r="I16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="18">
-        <v>68700</v>
-      </c>
-      <c r="F18" s="18">
-        <v>2000</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="33">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="45">
-        <v>43211</v>
-      </c>
-      <c r="F22" s="46"/>
+      <c r="E22" s="67">
+        <v>43256</v>
+      </c>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6136,1788 +7919,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFCF96E-35A1-2646-B69D-CD07A71FC411}">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>731</v>
-      </c>
-      <c r="C3" s="79">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>62</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="E4" s="11">
-        <v>41</v>
-      </c>
-      <c r="F4" s="12">
-        <v>19</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="22">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="62"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>69</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>47</v>
-      </c>
-      <c r="H7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="C9" s="30">
-        <v>11</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18">
-        <v>70</v>
-      </c>
-      <c r="C10" s="30">
-        <v>400</v>
-      </c>
-      <c r="E10" s="50">
-        <v>79</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18">
-        <v>35</v>
-      </c>
-      <c r="C11" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C12" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="28">
-        <v>4</v>
-      </c>
-      <c r="C13" s="30">
-        <v>10</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="30">
-        <v>35</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="35">
-        <v>0</v>
-      </c>
-      <c r="C15" s="32">
-        <v>50</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
-      <c r="I16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="18">
-        <v>77000</v>
-      </c>
-      <c r="F18" s="18">
-        <v>3000</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="33">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="45">
-        <v>43267</v>
-      </c>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643AED7F-CC45-AE4C-AB3E-1C6D990CAEFF}">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="79">
-        <v>412</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="80"/>
-      <c r="E4" s="11">
-        <v>8</v>
-      </c>
-      <c r="F4" s="12">
-        <v>12</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="22">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="62"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>9</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>22</v>
-      </c>
-      <c r="H7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="C9" s="30">
-        <v>11</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18">
-        <v>70</v>
-      </c>
-      <c r="C10" s="30">
-        <v>400</v>
-      </c>
-      <c r="E10" s="50">
-        <v>67</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18">
-        <v>35</v>
-      </c>
-      <c r="C11" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C12" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="28">
-        <v>3</v>
-      </c>
-      <c r="C13" s="30">
-        <v>8</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="25">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="30">
-        <v>35</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="35">
-        <v>0</v>
-      </c>
-      <c r="C15" s="32">
-        <v>50</v>
-      </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="16">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
-      <c r="I16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="18">
-        <v>9600</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="33">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="45">
-        <v>43141</v>
-      </c>
-      <c r="F22" s="46"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{DC1BD6B8-A583-CB4F-BBF0-F7A652F36766}">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-  </customSheetViews>
-  <mergeCells count="19">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA52E66-8D90-8549-9D8A-0FBFBE416048}">
-  <dimension ref="A1:L25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>612</v>
-      </c>
-      <c r="C3" s="79">
-        <v>41</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>211</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="E4" s="11">
-        <v>31</v>
-      </c>
-      <c r="F4" s="12">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="62"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="C9" s="30">
-        <v>11</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18">
-        <v>70</v>
-      </c>
-      <c r="C10" s="30">
-        <v>400</v>
-      </c>
-      <c r="E10" s="50">
-        <v>78</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18">
-        <v>35</v>
-      </c>
-      <c r="C11" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C12" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="28">
-        <v>4</v>
-      </c>
-      <c r="C13" s="30">
-        <v>10</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="30">
-        <v>35</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="35">
-        <v>0</v>
-      </c>
-      <c r="C15" s="32">
-        <v>50</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="16">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
-      <c r="I16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="18">
-        <v>73500</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="33">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="45">
-        <v>43337</v>
-      </c>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E25" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5198DAF-4552-4247-826A-7BD86AA6CAC8}">
-  <dimension ref="A1:L25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>653</v>
-      </c>
-      <c r="C3" s="79">
-        <v>65</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>196</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="E4" s="11">
-        <v>100</v>
-      </c>
-      <c r="F4" s="12">
-        <v>140</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="22">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="62"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>100</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>48</v>
-      </c>
-      <c r="H7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="C9" s="30">
-        <v>11</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18">
-        <v>70</v>
-      </c>
-      <c r="C10" s="30">
-        <v>400</v>
-      </c>
-      <c r="E10" s="50">
-        <v>56</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18">
-        <v>35</v>
-      </c>
-      <c r="C11" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C12" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="28">
-        <v>4</v>
-      </c>
-      <c r="C13" s="30">
-        <v>10</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="30">
-        <v>35</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="35">
-        <v>0</v>
-      </c>
-      <c r="C15" s="32">
-        <v>50</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="16">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
-      <c r="I16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="18">
-        <v>66500</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="33">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="45">
-        <v>43239</v>
-      </c>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E25" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934E0324-2EA6-6E4E-A5E8-488ECEA7C0B9}">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="79">
-        <v>528</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="80"/>
-      <c r="E4" s="39">
-        <v>6</v>
-      </c>
-      <c r="F4" s="40">
-        <v>9</v>
-      </c>
-      <c r="G4" s="40">
-        <v>1</v>
-      </c>
-      <c r="H4" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="22">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="62"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>17</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>40</v>
-      </c>
-      <c r="H7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="C9" s="30">
-        <v>11</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18">
-        <v>70</v>
-      </c>
-      <c r="C10" s="30">
-        <v>400</v>
-      </c>
-      <c r="E10" s="50">
-        <v>63</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18">
-        <v>35</v>
-      </c>
-      <c r="C11" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C12" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="28">
-        <v>4</v>
-      </c>
-      <c r="C13" s="30">
-        <v>10</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="25">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="30">
-        <v>35</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="35">
-        <v>0</v>
-      </c>
-      <c r="C15" s="32">
-        <v>50</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
-      <c r="I16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>3000</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="33">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="45">
-        <v>43257</v>
-      </c>
-      <c r="F22" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5B3907-CA8C-C044-BC2C-72D021C5EDE0}">
   <dimension ref="A1:J22"/>
@@ -7930,16 +7931,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -7949,21 +7950,21 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="79">
+      <c r="C3" s="58">
         <v>390</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -7984,7 +7985,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="80"/>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
         <v>6</v>
       </c>
@@ -8000,13 +8001,13 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="81"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
@@ -8017,25 +8018,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
+      <c r="E7" s="60">
         <v>30</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
         <v>23</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -8045,12 +8046,12 @@
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -8062,12 +8063,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -8079,12 +8080,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="72">
         <v>52</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -8135,7 +8136,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -8164,11 +8165,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="77"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
         <v>300</v>
       </c>
@@ -8182,7 +8183,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -8195,7 +8196,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
         <v>6750</v>
       </c>
@@ -8216,26 +8217,38 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="82"/>
       <c r="E21" s="82"/>
       <c r="F21" s="82"/>
-      <c r="G21" s="58"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="67">
         <v>43138</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -8243,18 +8256,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -8273,16 +8274,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -8292,21 +8293,21 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="79">
+      <c r="C3" s="58">
         <v>375</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -8327,7 +8328,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="80"/>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
         <v>6</v>
       </c>
@@ -8343,14 +8344,14 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
@@ -8360,25 +8361,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
+      <c r="E7" s="60">
         <v>53</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
         <v>30</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -8388,12 +8389,12 @@
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -8405,12 +8406,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -8422,12 +8423,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="72">
         <v>66</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -8478,7 +8479,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -8507,11 +8508,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="77"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
         <v>900</v>
       </c>
@@ -8525,7 +8526,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -8538,7 +8539,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
         <v>8200</v>
       </c>
@@ -8559,26 +8560,38 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="67">
         <v>43140</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -8586,18 +8599,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -8619,16 +8620,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -8638,21 +8639,21 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="79">
+      <c r="C3" s="58">
         <v>360</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -8673,7 +8674,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="80"/>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
         <v>9</v>
       </c>
@@ -8689,14 +8690,14 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
@@ -8706,25 +8707,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
+      <c r="E7" s="60">
         <v>13</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
         <v>35</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -8734,12 +8735,12 @@
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -8751,12 +8752,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -8768,12 +8769,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="72">
         <v>44</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -8824,7 +8825,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -8853,11 +8854,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
         <v>1000</v>
       </c>
@@ -8871,7 +8872,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -8884,7 +8885,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
         <v>7900</v>
       </c>
@@ -8905,26 +8906,388 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="67">
         <v>43148</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9651CF-2CA1-FE49-BCB4-835A4B820D99}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="58">
+        <v>470</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="59"/>
+      <c r="E4" s="11">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="22">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="E6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="E7" s="60">
+        <v>11</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>62</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>11</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18">
+        <v>70</v>
+      </c>
+      <c r="C10" s="30">
+        <v>400</v>
+      </c>
+      <c r="E10" s="72">
+        <v>67</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18">
+        <v>35</v>
+      </c>
+      <c r="C11" s="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="28">
+        <v>4</v>
+      </c>
+      <c r="C13" s="30">
+        <v>10</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <v>35</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0</v>
+      </c>
+      <c r="C15" s="32">
+        <v>50</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="15"/>
+      <c r="I16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="18">
+        <v>9000</v>
+      </c>
+      <c r="F18" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="67">
+        <v>43258</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -8936,357 +9299,8 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9651CF-2CA1-FE49-BCB4-835A4B820D99}">
-  <dimension ref="A1:J29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="79">
-        <v>470</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="80"/>
-      <c r="E4" s="11">
-        <v>8</v>
-      </c>
-      <c r="F4" s="12">
-        <v>9</v>
-      </c>
-      <c r="G4" s="12">
-        <v>2</v>
-      </c>
-      <c r="H4" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="22">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="62"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="E7" s="63">
-        <v>11</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
-        <v>62</v>
-      </c>
-      <c r="H7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="C9" s="30">
-        <v>11</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18">
-        <v>70</v>
-      </c>
-      <c r="C10" s="30">
-        <v>400</v>
-      </c>
-      <c r="E10" s="50">
-        <v>67</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18">
-        <v>35</v>
-      </c>
-      <c r="C11" s="30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C12" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="28">
-        <v>4</v>
-      </c>
-      <c r="C13" s="30">
-        <v>10</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="30">
-        <v>35</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="35">
-        <v>0</v>
-      </c>
-      <c r="C15" s="32">
-        <v>50</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
-      <c r="I16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="18">
-        <v>9000</v>
-      </c>
-      <c r="F18" s="18">
-        <v>3000</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="33">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="45">
-        <v>43257</v>
-      </c>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="E9:H9"/>
@@ -9295,19 +9309,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -9330,16 +9331,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -9349,14 +9350,14 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -9365,7 +9366,7 @@
       <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="58">
         <v>710</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -9388,7 +9389,7 @@
       <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
         <v>8</v>
       </c>
@@ -9404,14 +9405,14 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
@@ -9421,25 +9422,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
+      <c r="E7" s="60">
         <v>30</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
         <v>40</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -9449,12 +9450,12 @@
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -9466,12 +9467,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -9483,12 +9484,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="72">
         <v>54</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -9539,7 +9540,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -9568,11 +9569,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
         <v>2200</v>
       </c>
@@ -9586,7 +9587,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -9599,7 +9600,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
         <v>24000</v>
       </c>
@@ -9620,26 +9621,38 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="67">
         <v>43145</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -9647,18 +9660,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -9681,16 +9682,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -9700,14 +9701,14 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -9716,7 +9717,7 @@
       <c r="B3" s="5">
         <v>450</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="58">
         <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -9739,7 +9740,7 @@
       <c r="B4" s="5">
         <v>75</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
         <v>10</v>
       </c>
@@ -9755,14 +9756,14 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
@@ -9772,23 +9773,23 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
+      <c r="E7" s="60">
         <v>40</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -9798,12 +9799,12 @@
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -9815,12 +9816,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -9832,12 +9833,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="72">
         <v>67</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -9888,7 +9889,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -9917,11 +9918,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
         <v>450</v>
       </c>
@@ -9935,7 +9936,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -9948,7 +9949,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
         <v>29000</v>
       </c>
@@ -9969,26 +9970,38 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="67">
         <v>43360</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -9996,18 +10009,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -10030,16 +10031,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -10049,14 +10050,14 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -10065,7 +10066,7 @@
       <c r="B3" s="5">
         <v>400</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="58">
         <v>90</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -10088,7 +10089,7 @@
       <c r="B4" s="5">
         <v>110</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="59"/>
       <c r="E4" s="11">
         <v>11</v>
       </c>
@@ -10104,14 +10105,14 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
@@ -10121,25 +10122,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
-      <c r="E7" s="63">
+      <c r="E7" s="60">
         <v>39</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65">
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
         <v>22</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -10149,12 +10150,12 @@
       <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -10166,12 +10167,12 @@
       <c r="C9" s="30">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -10183,12 +10184,12 @@
       <c r="C10" s="30">
         <v>400</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="72">
         <v>87</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -10239,7 +10240,7 @@
       <c r="C14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -10268,11 +10269,11 @@
       <c r="C15" s="32">
         <v>50</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="16">
         <v>1000</v>
       </c>
@@ -10286,7 +10287,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -10299,7 +10300,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="18">
         <v>17000</v>
       </c>
@@ -10318,26 +10319,38 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="67">
         <v>43154</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:C1"/>
@@ -10345,18 +10358,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
